--- a/salaryEmail/11月工资表.xlsx
+++ b/salaryEmail/11月工资表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonStudy\salaryEamil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonStudy\salaryEmail\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -77,18 +77,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">代扣 -社保 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>代扣-公积金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他 – 扣款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>497232807@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,6 +102,14 @@
   </si>
   <si>
     <t>特殊情况说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">代扣-社保 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他-扣款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -494,10 +494,11 @@
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
@@ -523,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
@@ -541,25 +542,25 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
@@ -567,7 +568,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>5000</v>
@@ -620,10 +621,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>5000</v>

--- a/salaryEmail/11月工资表.xlsx
+++ b/salaryEmail/11月工资表.xlsx
@@ -105,11 +105,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">代扣-社保 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其他-扣款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代扣-社保</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +483,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -548,13 +548,13 @@
         <v>13</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>18</v>
